--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.496322</v>
+        <v>99.14059966666667</v>
       </c>
       <c r="H2">
-        <v>70.488966</v>
+        <v>297.421799</v>
       </c>
       <c r="I2">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="J2">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N2">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q2">
-        <v>1.430800696082667</v>
+        <v>29.11428943544445</v>
       </c>
       <c r="R2">
-        <v>12.877206264744</v>
+        <v>262.028604919</v>
       </c>
       <c r="S2">
-        <v>0.0002515318403723917</v>
+        <v>0.003564800042978337</v>
       </c>
       <c r="T2">
-        <v>0.0002515318403723917</v>
+        <v>0.003564800042978337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.496322</v>
+        <v>99.14059966666667</v>
       </c>
       <c r="H3">
-        <v>70.488966</v>
+        <v>297.421799</v>
       </c>
       <c r="I3">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="J3">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>84.138969</v>
       </c>
       <c r="O3">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P3">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q3">
-        <v>658.9854361240061</v>
+        <v>2780.529280665026</v>
       </c>
       <c r="R3">
-        <v>5930.868925116055</v>
+        <v>25024.76352598523</v>
       </c>
       <c r="S3">
-        <v>0.1158482938823631</v>
+        <v>0.3404524407574949</v>
       </c>
       <c r="T3">
-        <v>0.1158482938823631</v>
+        <v>0.3404524407574949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.496322</v>
+        <v>99.14059966666667</v>
       </c>
       <c r="H4">
-        <v>70.488966</v>
+        <v>297.421799</v>
       </c>
       <c r="I4">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="J4">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.646409</v>
       </c>
       <c r="O4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q4">
-        <v>91.21592533589934</v>
+        <v>384.8773240744213</v>
       </c>
       <c r="R4">
-        <v>820.9433280230941</v>
+        <v>3463.895916669791</v>
       </c>
       <c r="S4">
-        <v>0.01603557339175618</v>
+        <v>0.04712499353432836</v>
       </c>
       <c r="T4">
-        <v>0.01603557339175618</v>
+        <v>0.04712499353432837</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>374.7361</v>
       </c>
       <c r="I5">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="J5">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N5">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q5">
-        <v>7.606476632488888</v>
+        <v>36.68250045555556</v>
       </c>
       <c r="R5">
-        <v>68.45828969239999</v>
+        <v>330.1425041</v>
       </c>
       <c r="S5">
-        <v>0.001337203057950554</v>
+        <v>0.004491463873451771</v>
       </c>
       <c r="T5">
-        <v>0.001337203057950554</v>
+        <v>0.004491463873451771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>374.7361</v>
       </c>
       <c r="I6">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="J6">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>84.138969</v>
       </c>
       <c r="O6">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P6">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q6">
         <v>3503.323233453433</v>
@@ -818,10 +818,10 @@
         <v>31529.9091010809</v>
       </c>
       <c r="S6">
-        <v>0.6158770699109218</v>
+        <v>0.4289524853722798</v>
       </c>
       <c r="T6">
-        <v>0.6158770699109217</v>
+        <v>0.4289524853722798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>374.7361</v>
       </c>
       <c r="I7">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="J7">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.646409</v>
       </c>
       <c r="O7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q7">
         <v>484.9255430738777</v>
@@ -880,10 +880,10 @@
         <v>4364.3298876649</v>
       </c>
       <c r="S7">
-        <v>0.08524892015142459</v>
+        <v>0.05937505707031052</v>
       </c>
       <c r="T7">
-        <v>0.08524892015142459</v>
+        <v>0.05937505707031052</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.41168500000001</v>
+        <v>29.411685</v>
       </c>
       <c r="H8">
-        <v>88.23505500000002</v>
+        <v>88.235055</v>
       </c>
       <c r="I8">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="J8">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N8">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q8">
-        <v>1.79101475418</v>
+        <v>8.637231495000002</v>
       </c>
       <c r="R8">
-        <v>16.11913278762</v>
+        <v>77.73508345500001</v>
       </c>
       <c r="S8">
-        <v>0.0003148567361522824</v>
+        <v>0.001057556402771257</v>
       </c>
       <c r="T8">
-        <v>0.0003148567361522824</v>
+        <v>0.001057556402771257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.41168500000001</v>
+        <v>29.411685</v>
       </c>
       <c r="H9">
-        <v>88.23505500000002</v>
+        <v>88.235055</v>
       </c>
       <c r="I9">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="J9">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>84.138969</v>
       </c>
       <c r="O9">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P9">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q9">
-        <v>824.8896174842552</v>
+        <v>824.889617484255</v>
       </c>
       <c r="R9">
-        <v>7424.006557358297</v>
+        <v>7424.006557358295</v>
       </c>
       <c r="S9">
-        <v>0.1450139101539164</v>
+        <v>0.1010008006680163</v>
       </c>
       <c r="T9">
-        <v>0.1450139101539165</v>
+        <v>0.1010008006680163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.41168500000001</v>
+        <v>29.411685</v>
       </c>
       <c r="H10">
-        <v>88.23505500000002</v>
+        <v>88.235055</v>
       </c>
       <c r="I10">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="J10">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.646409</v>
       </c>
       <c r="O10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q10">
         <v>114.180170963055</v>
@@ -1066,10 +1066,10 @@
         <v>1027.621538667495</v>
       </c>
       <c r="S10">
-        <v>0.02007264087514269</v>
+        <v>0.01398040227836867</v>
       </c>
       <c r="T10">
-        <v>0.02007264087514269</v>
+        <v>0.01398040227836867</v>
       </c>
     </row>
   </sheetData>
